--- a/psData.xlsx
+++ b/psData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkim.ORADEV\Documents\Python\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E4A753-2536-46AA-BFCA-EE519A3B9A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFA268F-989F-4F89-BBCE-C1DDAF00E195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
+    <sheet name="AttributeValue" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Description</t>
   </si>
@@ -114,6 +115,36 @@
   </si>
   <si>
     <t>Test Desc</t>
+  </si>
+  <si>
+    <t>AK-Excel3</t>
+  </si>
+  <si>
+    <t>SegmentCode</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>RBA_ICREAM_SIZE</t>
+  </si>
+  <si>
+    <t>SMALL</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>ICream Flavour</t>
+  </si>
+  <si>
+    <t>Pistachio</t>
+  </si>
+  <si>
+    <t>AttributeValueCode</t>
   </si>
 </sst>
 </file>
@@ -124,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +301,18 @@
       <color rgb="FF413636"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Oracle Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -641,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +702,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="15" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -711,10 +760,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFE05039"/>
       <color rgb="FFFFFFFF"/>
       <color rgb="FF413636"/>
       <color rgb="FFE0E2E1"/>
+      <color rgb="FFE05039"/>
       <color rgb="FF749C9E"/>
     </mruColors>
   </colors>
@@ -773,6 +822,61 @@
         <a:xfrm>
           <a:off x="1" y="22859"/>
           <a:ext cx="26671905" cy="310516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>339090</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>302896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD94C7C9-3286-4AFF-91C9-BD34C79FCA4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="26662380" cy="302896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1081,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1250,6 +1354,99 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>43376</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4">
+        <v>45</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25C2802-3AA1-43FE-B14A-997C7E130F37}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="25" width="14.77734375" style="7" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/psData.xlsx
+++ b/psData.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkim.ORADEV\Documents\Python\rest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFA268F-989F-4F89-BBCE-C1DDAF00E195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBCEFD-C168-48BE-BF00-40A7AE60A9E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="9780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Description</t>
   </si>
@@ -39,12 +39,6 @@
     <t>days</t>
   </si>
   <si>
-    <t>Dynamic</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
@@ -105,21 +99,12 @@
     <t>M3</t>
   </si>
   <si>
-    <t>AK-Excel1</t>
-  </si>
-  <si>
     <t>AK-Excel2</t>
   </si>
   <si>
     <t>CalendarHorizonStartDate</t>
   </si>
   <si>
-    <t>Test Desc</t>
-  </si>
-  <si>
-    <t>AK-Excel3</t>
-  </si>
-  <si>
     <t>SegmentCode</t>
   </si>
   <si>
@@ -132,12 +117,6 @@
     <t>SMALL</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
     <t>ICream Flavour</t>
   </si>
   <si>
@@ -145,6 +124,36 @@
   </si>
   <si>
     <t>AttributeValueCode</t>
+  </si>
+  <si>
+    <t>#FF00FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla </t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>Fresa</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Mediano</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>ML-Excel1</t>
   </si>
 </sst>
 </file>
@@ -315,7 +324,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +513,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0E2E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +723,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,9 +737,6 @@
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="15" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,6 +744,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -760,8 +814,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF413636"/>
       <color rgb="FFFFFFFF"/>
-      <color rgb="FF413636"/>
       <color rgb="FFE0E2E1"/>
       <color rgb="FFE05039"/>
       <color rgb="FF749C9E"/>
@@ -789,9 +843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>516256</xdr:colOff>
+      <xdr:colOff>493396</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>325755</xdr:rowOff>
+      <xdr:rowOff>335280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,199 +1239,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="4"/>
+    <col min="10" max="11" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>5150</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="5">
-        <v>43458.125</v>
+        <v>43344</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>43458.125</v>
-      </c>
-      <c r="K2" s="5">
-        <v>43488.125</v>
-      </c>
-      <c r="L2" s="5">
-        <v>43458.125</v>
-      </c>
-      <c r="M2" s="5">
-        <v>43488.125</v>
-      </c>
-      <c r="N2" s="5">
-        <v>43120.950543981482</v>
-      </c>
-      <c r="O2" s="5">
-        <v>43552.950671296298</v>
-      </c>
-      <c r="P2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="R2" s="4">
         <v>30</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6">
-        <v>43344</v>
+      <c r="G3" s="5">
+        <v>43376</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R3" s="4">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="6">
-        <v>43376</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="4">
-        <v>45</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1389,62 +1388,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25C2802-3AA1-43FE-B14A-997C7E130F37}">
-  <dimension ref="A1:D3"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="24.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
-    <col min="5" max="25" width="14.77734375" style="7" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="6" customWidth="1"/>
+    <col min="4" max="25" width="14.7109375" style="6" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="55.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>35</v>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
